--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ572.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ572.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A3E107-124D-438A-AB08-BC7865908099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8F893E-B2B3-41CD-B9AA-652E8181FBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -280,10 +280,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增;C:異動</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>AllotAmt</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -377,6 +373,11 @@
   </si>
   <si>
     <t>申請日期</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -948,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -968,10 +969,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -996,10 +997,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1105,7 +1106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -1123,7 +1124,7 @@
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1137,14 +1138,14 @@
         <v>23</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="15">
         <v>3</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1174,7 +1175,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>36</v>
@@ -1234,14 +1235,14 @@
         <v>48</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="15">
         <v>3</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1249,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>39</v>
@@ -1283,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1291,7 +1292,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>50</v>
@@ -1310,10 +1311,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>21</v>
@@ -1916,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:C9"/>
     </sheetView>
@@ -1942,65 +1943,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
